--- a/Doc/数据库设计.商品.xlsx
+++ b/Doc/数据库设计.商品.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="库设计-备注" sheetId="1" r:id="rId1"/>
     <sheet name="表设计样本" sheetId="2" r:id="rId2"/>
-    <sheet name="用户表" sheetId="4" r:id="rId3"/>
+    <sheet name="商品表" sheetId="4" r:id="rId3"/>
     <sheet name="系统配置表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>测试库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WL_Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帐号表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +322,42 @@
   </si>
   <si>
     <t>WL_SysConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL_Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -991,7 +1023,7 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1033,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD33"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1049,10 +1081,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,185 +1122,113 @@
         <v>55</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="4">
-        <v>128</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="4"/>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="4"/>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4">
-        <v>128</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4">
-        <v>128</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="4"/>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D12" s="4">
+        <v>128</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="4">
-        <v>128</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4">
-        <v>128</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1276,9 +1236,125 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4">
+        <v>128</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4">
+        <v>128</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
+        <v>128</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4">
+        <v>128</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1302,10 +1378,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/Doc/数据库设计.商品.xlsx
+++ b/Doc/数据库设计.商品.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="库设计-备注" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>测试库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t>CategoryName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryIDPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryNamePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1076,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1164,6 +1172,16 @@
       </c>
       <c r="D8">
         <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
